--- a/Datasets/SeperateCountryFiles/Bosnia.xlsx
+++ b/Datasets/SeperateCountryFiles/Bosnia.xlsx
@@ -364,19 +364,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
     <col width="27" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
@@ -393,55 +408,59 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>WorldRegion</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+          <t>Continent</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Sub-Region</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>CountryName</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedCases</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedNewCases</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TotalDeaths</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TotalNewDeaths</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TransmissionClassification </t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>DaysSinceLastReportedCase</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>MasterSheet RowNo.</t>
         </is>
       </c>
-      <c r="M1" s="2" t="n"/>
       <c r="N1" s="2" t="n"/>
       <c r="O1" s="2" t="n"/>
     </row>
@@ -452,43 +471,45 @@
       <c r="B2" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>43895</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>2</v>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
       </c>
       <c r="G2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>1305</v>
       </c>
-      <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
     </row>
@@ -499,43 +520,45 @@
       <c r="B3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>43896</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="M3" s="2" t="n">
         <v>1394</v>
       </c>
-      <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
     </row>
@@ -546,43 +569,45 @@
       <c r="B4" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>43897</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>1487</v>
       </c>
-      <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
     </row>
@@ -593,43 +618,45 @@
       <c r="B5" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>43898</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>1584</v>
       </c>
-      <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
     </row>
@@ -640,43 +667,45 @@
       <c r="B6" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>43899</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>1690</v>
       </c>
-      <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
     </row>
@@ -687,43 +716,45 @@
       <c r="B7" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>1799</v>
       </c>
-      <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
     </row>
@@ -734,43 +765,45 @@
       <c r="B8" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>43901</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
         <v>1910</v>
       </c>
-      <c r="M8" s="2" t="n"/>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
     </row>
@@ -781,43 +814,45 @@
       <c r="B9" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>43902</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
     </row>
@@ -828,43 +863,45 @@
       <c r="B10" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>43903</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="M10" s="2" t="n">
         <v>2147</v>
       </c>
-      <c r="M10" s="2" t="n"/>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
     </row>
@@ -875,43 +912,45 @@
       <c r="B11" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>43904</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="H11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
         <v>2269</v>
       </c>
-      <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
     </row>
@@ -922,43 +961,45 @@
       <c r="B12" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>43905</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="H12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
         <v>2405</v>
       </c>
-      <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
     </row>
@@ -969,43 +1010,45 @@
       <c r="B13" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>43906</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="M13" s="2" t="n">
         <v>2507</v>
       </c>
-      <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
     </row>
@@ -1016,43 +1059,45 @@
       <c r="B14" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>43907</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="H14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="M14" s="2" t="n">
         <v>2661</v>
       </c>
-      <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
     </row>
@@ -1063,43 +1108,45 @@
       <c r="B15" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>43908</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="M15" s="2" t="n">
         <v>2824</v>
       </c>
-      <c r="M15" s="2" t="n"/>
       <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n"/>
     </row>
@@ -1110,43 +1157,45 @@
       <c r="B16" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>43909</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="H16" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>0</v>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
         <v>2980</v>
       </c>
-      <c r="M16" s="2" t="n"/>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="n"/>
     </row>
@@ -1157,43 +1206,45 @@
       <c r="B17" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>43910</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="H17" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
         <v>3153</v>
       </c>
-      <c r="M17" s="2" t="n"/>
       <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="n"/>
     </row>
@@ -1204,43 +1255,45 @@
       <c r="B18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>43911</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="M18" s="2" t="n">
         <v>3334</v>
       </c>
-      <c r="M18" s="2" t="n"/>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
@@ -1251,43 +1304,45 @@
       <c r="B19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>43912</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="H19" s="2" t="n">
         <v>48</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
+      <c r="J19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
         <v>3508</v>
       </c>
-      <c r="M19" s="2" t="n"/>
       <c r="N19" s="2" t="n"/>
       <c r="O19" s="2" t="n"/>
     </row>
@@ -1298,43 +1353,45 @@
       <c r="B20" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>43913</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="H20" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="I20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>0</v>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
         <v>3695</v>
       </c>
-      <c r="M20" s="2" t="n"/>
       <c r="N20" s="2" t="n"/>
       <c r="O20" s="2" t="n"/>
     </row>
@@ -1345,43 +1402,45 @@
       <c r="B21" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>43914</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="H21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="I21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0</v>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
         <v>3888</v>
       </c>
-      <c r="M21" s="2" t="n"/>
       <c r="N21" s="2" t="n"/>
       <c r="O21" s="2" t="n"/>
     </row>
@@ -1392,43 +1451,45 @@
       <c r="B22" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>43915</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="H22" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="I22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="J22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>0</v>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
         <v>4083</v>
       </c>
-      <c r="M22" s="2" t="n"/>
       <c r="N22" s="2" t="n"/>
       <c r="O22" s="2" t="n"/>
     </row>
@@ -1439,43 +1500,45 @@
       <c r="B23" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="n">
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>43916</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="H23" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="I23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="J23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>0</v>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
         <v>4282</v>
       </c>
-      <c r="M23" s="2" t="n"/>
       <c r="N23" s="2" t="n"/>
       <c r="O23" s="2" t="n"/>
     </row>
@@ -1486,43 +1549,45 @@
       <c r="B24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>43917</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="H24" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="I24" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>0</v>
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
         <v>4476</v>
       </c>
-      <c r="M24" s="2" t="n"/>
       <c r="N24" s="2" t="n"/>
       <c r="O24" s="2" t="n"/>
     </row>
@@ -1533,43 +1598,45 @@
       <c r="B25" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>43918</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="H25" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="I25" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="J25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>0</v>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="n">
         <v>4673</v>
       </c>
-      <c r="M25" s="2" t="n"/>
       <c r="N25" s="2" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
@@ -1580,43 +1647,45 @@
       <c r="B26" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
         <v>43919</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>269</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="H26" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="I26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="J26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>0</v>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="n">
         <v>4874</v>
       </c>
-      <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="n"/>
     </row>
@@ -1627,43 +1696,45 @@
       <c r="B27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n">
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>43920</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="H27" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="I27" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>0</v>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="n">
         <v>5077</v>
       </c>
-      <c r="M27" s="2" t="n"/>
       <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="n"/>
     </row>
@@ -1674,43 +1745,45 @@
       <c r="B28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EASTERN EUROPE                     </t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southeast Europe          </t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
         <v>43921</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
         <v>359</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="H28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="I28" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="J28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>Local transmission</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>0</v>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
       </c>
       <c r="L28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="n">
         <v>5278</v>
       </c>
-      <c r="M28" s="2" t="n"/>
       <c r="N28" s="2" t="n"/>
       <c r="O28" s="2" t="n"/>
     </row>
